--- a/xlsx/华纳兄弟电视网_intext.xlsx
+++ b/xlsx/华纳兄弟电视网_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>华纳兄弟电视网</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>無線電視</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_华纳兄弟电视网</t>
+    <t>无线电视</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_华纳兄弟电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視網</t>
+    <t>电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%BA%B3%E5%85%84%E5%BC%9F</t>
@@ -47,15 +47,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%8D%E5%85%84%E5%BC%9F</t>
   </si>
   <si>
-    <t>華納兄弟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/CBS%E9%9B%86%E5%9B%A2</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>https://zh.wikipedia.org/wiki/CW%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>CW電視台</t>
+    <t>CW电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UPN</t>
@@ -77,7 +74,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%9B%9B%E5%A4%A7%E9%9B%BB%E8%A6%96%E7%B6%B2</t>
   </si>
   <si>
-    <t>美國第四大電視網</t>
+    <t>美国第四大电视网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Time_Warner</t>
@@ -608,7 +605,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -634,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -663,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -692,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -721,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -750,10 +747,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -779,10 +776,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -808,10 +805,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
